--- a/apps/features/backlog/desktop/windows/signup/signup_ui_design.xlsx
+++ b/apps/features/backlog/desktop/windows/signup/signup_ui_design.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\signup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A2A349-C8E0-4E2F-96D2-B03A942E005B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957FCA2A-0D1E-44EB-9B8A-336028B90A15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="117">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -307,13 +307,7 @@
 4.  verify that the footer design aligns with the application's visual style</t>
   </si>
   <si>
-    <t>Overall Page Layout</t>
-  </si>
-  <si>
     <t>SYM-WIN-LOG-025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">need gap between username  and password field </t>
   </si>
   <si>
     <t xml:space="preserve">1. goto the app store
@@ -385,9 +379,6 @@
 4. check the overall layout of the signup page to ensure a well-organized and intuitive design</t>
   </si>
   <si>
-    <t xml:space="preserve">need gap between confirm-password  and password field </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. goto the app store
 2. search and install the app
 3. open the app from the device home screen
@@ -440,6 +431,33 @@
   </si>
   <si>
     <t>signup button has a clear hover state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check gap between username  and password field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check gap between confirm-password  and password field </t>
+  </si>
+  <si>
+    <t>check overall page layout</t>
+  </si>
+  <si>
+    <t>SYM-WIN-LOG-029</t>
+  </si>
+  <si>
+    <t>check if clicking out side of the username box</t>
+  </si>
+  <si>
+    <t>1. goto the app store
+2. search and install the app
+3. open the app from the device home screen
+4. check if clicking out side of the username box</t>
+  </si>
+  <si>
+    <t>should be in the signup page</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -1541,8 +1559,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1559,7 +1577,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -1668,7 +1686,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>35</v>
@@ -1710,7 +1728,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>39</v>
@@ -1753,10 +1771,10 @@
         <v>38</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="3"/>
@@ -1950,7 +1968,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>51</v>
@@ -2033,7 +2051,7 @@
         <v>56</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>6</v>
@@ -2186,7 +2204,7 @@
       <c r="B17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="24" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -2270,7 +2288,7 @@
         <v>72</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>35</v>
@@ -2307,13 +2325,13 @@
         <v>27</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>33</v>
@@ -2347,10 +2365,10 @@
         <v>27</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>35</v>
@@ -2390,7 +2408,7 @@
         <v>72</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>35</v>
@@ -2430,7 +2448,7 @@
         <v>73</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>35</v>
@@ -2470,10 +2488,10 @@
         <v>74</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>33</v>
@@ -2507,10 +2525,10 @@
         <v>27</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>75</v>
@@ -2619,16 +2637,16 @@
     </row>
     <row r="28" spans="1:26" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>35</v>
@@ -2657,16 +2675,16 @@
     </row>
     <row r="29" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>35</v>
@@ -2695,16 +2713,16 @@
     </row>
     <row r="30" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>35</v>
@@ -2733,21 +2751,23 @@
     </row>
     <row r="31" spans="1:26" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2770,12 +2790,24 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="11"/>
+      <c r="A32" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
